--- a/datasets/mediteranian-medetera-occurrences/data/interim/GBIF_Medetera_degrees_positive.xlsx
+++ b/datasets/mediteranian-medetera-occurrences/data/interim/GBIF_Medetera_degrees_positive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitri_brosens\Documents\Github\data-publication\datasets\mediteranian-medetara-occurrences\data\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitri_brosens\Documents\Github\data-publication\datasets\mediteranian-medetera-occurrences\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A5660F-C2D1-4F11-8267-5CA043134D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF88789-7519-4E61-91CD-79508D748EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:AM64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O64"/>
+    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4260,11 +4260,11 @@
         <v>9</v>
       </c>
       <c r="U29" s="2">
-        <v>13375</v>
+        <v>13.375</v>
       </c>
       <c r="W29">
         <f t="shared" si="1"/>
-        <v>231.91666666666666</v>
+        <v>9.2229166666666664</v>
       </c>
       <c r="X29">
         <v>1095</v>
@@ -4365,11 +4365,11 @@
         <v>9</v>
       </c>
       <c r="U30" s="2">
-        <v>13544</v>
+        <v>13.544</v>
       </c>
       <c r="W30">
         <f t="shared" si="1"/>
-        <v>234.73333333333332</v>
+        <v>9.2257333333333342</v>
       </c>
       <c r="X30">
         <v>1154</v>
@@ -4470,11 +4470,11 @@
         <v>9</v>
       </c>
       <c r="U31" s="2">
-        <v>13409</v>
+        <v>13.409000000000001</v>
       </c>
       <c r="W31">
         <f t="shared" si="1"/>
-        <v>232.48333333333332</v>
+        <v>9.2234833333333341</v>
       </c>
       <c r="X31">
         <v>1117</v>
@@ -4575,11 +4575,11 @@
         <v>9</v>
       </c>
       <c r="U32" s="2">
-        <v>13409</v>
+        <v>13.409000000000001</v>
       </c>
       <c r="W32">
         <f t="shared" si="1"/>
-        <v>232.48333333333332</v>
+        <v>9.2234833333333341</v>
       </c>
       <c r="X32">
         <v>1117</v>
@@ -4680,11 +4680,11 @@
         <v>9</v>
       </c>
       <c r="U33" s="2">
-        <v>13378</v>
+        <v>13.378</v>
       </c>
       <c r="W33">
         <f t="shared" si="1"/>
-        <v>231.96666666666667</v>
+        <v>9.2229666666666663</v>
       </c>
       <c r="X33">
         <v>1116</v>
@@ -4785,11 +4785,11 @@
         <v>9</v>
       </c>
       <c r="U34" s="2">
-        <v>13347</v>
+        <v>13.347</v>
       </c>
       <c r="W34">
         <f t="shared" si="1"/>
-        <v>231.45</v>
+        <v>9.2224500000000003</v>
       </c>
       <c r="X34">
         <v>1120</v>
@@ -4890,11 +4890,11 @@
         <v>9</v>
       </c>
       <c r="U35" s="2">
-        <v>13380</v>
+        <v>13.38</v>
       </c>
       <c r="W35">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="X35">
         <v>1115</v>
@@ -4995,11 +4995,11 @@
         <v>9</v>
       </c>
       <c r="U36" s="2">
-        <v>13380</v>
+        <v>13.38</v>
       </c>
       <c r="W36">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="X36">
         <v>1115</v>
@@ -5100,11 +5100,11 @@
         <v>9</v>
       </c>
       <c r="U37" s="2">
-        <v>13658</v>
+        <v>13.657999999999999</v>
       </c>
       <c r="W37">
         <f t="shared" si="1"/>
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="X37">
         <v>1209</v>
@@ -5205,11 +5205,11 @@
         <v>9</v>
       </c>
       <c r="U38" s="2">
-        <v>13658</v>
+        <v>13.657999999999999</v>
       </c>
       <c r="W38">
         <f t="shared" si="1"/>
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="X38">
         <v>1209</v>
@@ -5310,11 +5310,11 @@
         <v>9</v>
       </c>
       <c r="U39" s="2">
-        <v>13658</v>
+        <v>13.657999999999999</v>
       </c>
       <c r="W39">
         <f t="shared" si="1"/>
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="X39">
         <v>1209</v>
@@ -5415,11 +5415,11 @@
         <v>9</v>
       </c>
       <c r="U40" s="2">
-        <v>13658</v>
+        <v>13.657999999999999</v>
       </c>
       <c r="W40">
         <f t="shared" si="1"/>
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="X40">
         <v>1209</v>
@@ -5520,11 +5520,11 @@
         <v>9</v>
       </c>
       <c r="U41" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W41">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X41">
         <v>1208</v>
@@ -5625,11 +5625,11 @@
         <v>9</v>
       </c>
       <c r="U42" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W42">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X42">
         <v>1208</v>
@@ -5730,11 +5730,11 @@
         <v>9</v>
       </c>
       <c r="U43" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W43">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X43">
         <v>1208</v>
@@ -5835,11 +5835,11 @@
         <v>9</v>
       </c>
       <c r="U44" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W44">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X44">
         <v>1208</v>
@@ -5940,11 +5940,11 @@
         <v>9</v>
       </c>
       <c r="U45" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W45">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X45">
         <v>1208</v>
@@ -6045,11 +6045,11 @@
         <v>9</v>
       </c>
       <c r="U46" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W46">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X46">
         <v>1208</v>
@@ -6150,11 +6150,11 @@
         <v>9</v>
       </c>
       <c r="U47" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W47">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X47">
         <v>1208</v>
@@ -6255,11 +6255,11 @@
         <v>9</v>
       </c>
       <c r="U48" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W48">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X48">
         <v>1208</v>
@@ -6360,11 +6360,11 @@
         <v>9</v>
       </c>
       <c r="U49" s="2">
-        <v>13649</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="W49">
         <f t="shared" si="1"/>
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="X49">
         <v>1208</v>
